--- a/data/trans_camb/P9_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P9_3-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-1,27</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 8,63</t>
+          <t>-16,92; 10,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 6,86</t>
+          <t>-11,07; 8,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 5,78</t>
+          <t>-10,07; 6,82</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,85%</t>
+          <t>-3,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,41%</t>
+          <t>-0,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,61%</t>
+          <t>-2,07%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 16,57</t>
+          <t>-26,46; 18,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 13,02</t>
+          <t>-16,86; 15,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 10,66</t>
+          <t>-15,73; 11,82</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>-0,45</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 10,92</t>
+          <t>-12,46; 12,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 11,32</t>
+          <t>-12,46; 10,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 7,58</t>
+          <t>-8,72; 8,13</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>-0,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>-0,81%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 21,07</t>
+          <t>-22,04; 26,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 25,01</t>
+          <t>-20,08; 21,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 14,89</t>
+          <t>-15,02; 16,03</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,46</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 19,89</t>
+          <t>-34,39; 32,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 17,76</t>
+          <t>-25,12; 24,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 13,54</t>
+          <t>-22,53; 19,95</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,65%</t>
+          <t>-2,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>-0,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,09%</t>
+          <t>-1,05%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,08; 66,28</t>
+          <t>-64,38; 129,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 47,39</t>
+          <t>-40,17; 65,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,05; 35,77</t>
+          <t>-43,01; 58,28</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-0,91</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 6,76</t>
+          <t>-10,65; 7,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 6,4</t>
+          <t>-7,49; 6,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 5,13</t>
+          <t>-6,73; 4,86</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>-2,43%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>-0,97%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>-1,61%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 12,91</t>
+          <t>-17,94; 14,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 12,61</t>
+          <t>-12,19; 11,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 10,0</t>
+          <t>-11,16; 8,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P9_3-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,09</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,27</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.866162138056326</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.6059349712548845</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.524126812843384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-16,92; 10,38</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-11,07; 8,78</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-10,07; 6,82</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-14.66607779866612</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.845553154202385</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-8.761881415164</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,44%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,93%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,07%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.04775986636524</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.919714321393171</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.022255966036917</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-26,46; 18,83</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-16,86; 15,37</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-15,73; 11,82</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.03063022314351021</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.009812634204174454</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.008539904880875951</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2232670252259761</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1508269485969683</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1378373717621894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,46; 12,21</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-12,46; 10,41</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,72; 8,13</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.2015662129590657</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.172261285711525</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1414782681298452</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,77%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,93%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,81%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.4424031924397553</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.5159963125221823</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.1047011562672728</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-22,04; 26,9</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-20,08; 21,07</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-15,02; 16,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-12.5860303958817</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.01325029146313</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.604273437031837</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.72215916610922</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.21113163396754</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.345070421029002</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-34,39; 32,0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-25,12; 24,12</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-22,53; 19,95</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.00835251133765468</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.009140075662313417</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.001909516523800157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,78%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,05%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,05%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.2157059297848147</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1965183437994039</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1470422723714413</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-64,38; 129,43</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-40,17; 65,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-43,01; 58,28</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.3036731863220657</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.2081431631048344</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1658023555068751</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.3866389991691144</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.5923021659404282</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.9640129445823264</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-10,65; 7,54</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-7,49; 6,61</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-6,73; 4,86</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-33.58568180411089</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-24.65691088948786</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-21.07549866726252</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-2,43%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-0,97%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-1,61%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>33.07224713286281</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>24.83047821426526</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>20.57706274131701</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-17,94; 14,21</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-12,19; 11,94</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-11,16; 8,87</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.01048294210460204</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.01176059909950085</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.02214399914528476</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.6293168911091043</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.3928618543958307</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.4038000149923115</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.339991682240306</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.6704387271837403</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.6438964889437564</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.5512383260103393</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1135528756427084</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.2051448144696377</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-9.226676020679822</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.962519304829396</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-6.35161644923187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.924025178004182</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.115149445266673</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.574475228279361</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.01001992488274988</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.001940053878929683</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.003605695739590268</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1588762314537435</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1106258269456346</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1027722453823009</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1767302942867016</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1322101079284682</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1014102934687389</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
